--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5850E-3B3A-46BD-BDAE-0EB9B5E6ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790937C-CF09-4195-AC64-B4B3DB3FA9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="788">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1006,10 +1006,6 @@
   </si>
   <si>
     <t>債權結束註記</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>左靠，3 正常債權全額清償 ；T 債權轉讓， S債權證券化；P 不良債權主債務人自償 ， Q 不良債權從債務人代位償還 R 主、從債務人以外之第三人代位償還，G 代物償還(指債權人受領其他給付，以消滅原債權之償還)，E 債務承擔(指原有債務為第三人承擔)，D 處分擔保品 A 承受擔保品；H 債權和解，N債權拋棄 ，J 合併或業務移轉，X 債權轉讓後原債權機購買回，F 信保基金退理賠，Z 結清銷戶；如無結案狀況請填空白，勿填0。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1391,17 +1387,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>A 企業授信戶負責人IDN
-B 個人授信戶負責之事業體BAN
-C 助學貸款戶學校代號
-D 留學生就學貸款之留學生IDN
-左靠，請填a 企業負責人之身分證統一編號
-b 個人授信戶負責之事業體(僅限非法人組織)營利事業統一編號
-c 如授信戶為高級中等以上學校就學貸款戶，本欄請填該筆貸款所屬之教育部編列六碼學校代號
-d 如授信戶為留學生就學貸款，本欄位請填該筆貸款所屬留學生IDN，若授信戶為留學生本人，本欄與第6欄為相同之IDN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>負責人IDN/負責之事業體BAN</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1445,15 +1430,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>左靠右空白，
-a 如該筆授信屬甲類逾期放款，請填報其分類代號如下 1 放款本金超過清償期三個月而未獲清償，或雖為屆滿三個月，但已向主、從債務人訴追獲處分擔保品者， 2 放款本金未超過清償期三個月，而利息未按期繳納超過六個月者， 3 分期償還放款未按期攤還超過六個月，或雖未屆滿六個月，但已向主、從債務人訴追獲處分擔保品者， 4 協議分期償還放款符合一定條件而曾經免列報逾期放款案件，於免列報期間再發生未依約清償超過三個月者；同一筆授信之分類，請於本欄位之分類代號與第40欄之分類代號中則一填報；若非屬甲類逾期放款請填 X。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>a 如該筆授信與乙類逾期放款，請填報其分類代號如下:1 放款本金未超過清償期三個月，惟利息未按期繳納超過清償期三個月，分期償還放款未按期攤還超過三個月至六個月者， 3 協議分期償還放款，協議條件符合規定，且借款戶依協議條件按期履約未滿六個月者， 4 已獲信用保證基金同意理賠款項或有足額存單或存款備償(需辦妥質權設定且徵得發單行拋棄抵銷權同意書)，而約定待其他債務人財產處分後再予沖償者， 5 已確定分配之債權，惟尚未接獲分配款者， 6 債務人兼擔保品提供人死亡，於辦理繼承期間，借期而為清償之放款，其繳息正常且有十足擔保者， 7 其他(如921震災展延本息之放款)；同一筆授信之分類，請於本欄位之分類代號與第39欄之分類代號中則一填報；若非屬類逾期放款請填 X。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>a 債權處理後新債權人IDN/BAN
 b 債權轉讓後原債權機購買回之前手債權人IDN/BAN
 c 信保基金退理賠信用保證機構BAN
@@ -1485,10 +1461,6 @@
     <t>OverseasId</t>
   </si>
   <si>
-    <t>用途別請參照附件五 (1:購置不動產 2:購置動產 3:企業投資 4:週轉金)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>聯徵欄位編號</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1529,11 +1501,6 @@
   </si>
   <si>
     <t>共同債務人或債務關係人身份代號4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=關係人5位以內
-2=關係人5位以上記在第2筆</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -2944,10 +2911,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>一位文數字，依永續績效連結授信契約所約定須達成之永續目標類別，分為三大類:E環境、S社會責任、G公司治理，共7種組合(代碼為1~7)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>一位文數字，永續績效連結授信如有約定之指標或條件全部未達成而未給予優惠之情形，請填'Y'，否則請填'N'</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -2985,6 +2948,250 @@
   </si>
   <si>
     <t>就學貸款逾期案件信保基金代償金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除
+每月正常報送資料(尚未上線時)僅限填A 代碼;發函更正(已上線)授信資料時，依下列狀況填A C D代碼：
+1. 新增資料時填A;
+2. 修改非key值欄位值時填C; 
+3. 刪除原報送資料時填D;
+4. 若為更改Key欄位值，請先以一筆D刪除原報送資料，再以A代碼報送一筆新增(異動後)資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:本月新增帳號(非上月轉換而來)
+C:本月轉換帳號(如填報C，請務必填報帳號轉換檔)
+X:舊有帳號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:關係人5位以內
+2:關係人5位以上記在第2筆</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:企業授信戶負責人IDN
+B:個人授信戶負責之事業體BAN
+C:助學貸款戶學校代號
+D:留學生就學貸款之留學生IDN
+左靠，請填a 企業負責人之身分證統一編號
+b 個人授信戶負責之事業體(僅限非法人組織)營利事業統一編號
+c 如授信戶為高級中等以上學校就學貸款戶，本欄請填該筆貸款所屬之教育部編列六碼學校代號
+d 如授信戶為留學生就學貸款，本欄位請填該筆貸款所屬留學生IDN，若授信戶為留學生本人，本欄與第6欄為相同之IDN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13欄 科目別填報A：催收款項及B呆帳者，或第41欄 不良債權處理註記 填報代號B 轉銷呆帳及C轉催收者，本欄位為必要填報項目，請填報轉催收款(或呆帳)前原核准貸放授信科目(若為轉呆帳，本欄位請勿填報催收科目A)，且每月需持續報送該轉催(呆)前授信科目，左靠右空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人特殊融資分為五類 
+A:專案融資 
+B:商品融資 
+C:標的融資 
+D:收益型商用不動產融資 
+E:高風險商用不動產融資 
+K:非屬前述特殊融資之其他一般法人金融貸款
+個人(含非法人組織)金融貸款分類為
+L:購買住宅貸款(非自用) 
+M:購買住宅貸款(自用) 
+N:一般房屋抵押貸款(房屋修繕貸款) 
+O:由信用卡衍生之小額信用貸款 
+R:由現金卡衍生之小額信用貸款 
+S:創業貸款 
+T:所營事業營運周轉金貸款 
+U:建築用融資貸款 
+V:代墊投標保證金貸款 
+W:農業用途貸款 
+X:參與都市更新更新計畫貸款 
+Y:企業員工認購股票(或可轉換公司債)貸款
+Z:其他個人金融貸款
+1:個人投資理財貸款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">填報該筆授信屬何種政府專案補助性質之貸款：專案補助貸款大項分類為
+01:振興傳統產業專案貸款
+02:輔導中小企業升級或協助紮根貸款
+03:振興景氣分案專案貸款
+04:購置自動化機器
+05:行政院開發基金或中小企業發展基金
+06:微型企業創業貸款
+07:九二一大地震金融因應措施
+08:SARS 金融因應措施
+09:青年優惠房屋貸款
+10:優惠購屋專案貸款
+11:輔助人民自購住宅貸款(首購或非首購)
+12:國民住宅貸款
+13:公教人員購置住宅
+14:勞工貸款(含自購住宅及房屋修繕)
+15:國軍官兵貸款
+17:原住民貸款
+18:學生助學貸款
+19:獎勵數位內容產業及文化創意產業優惠貸款
+20:留學生就學貸款
+21:青年創業貸款(非屬農業部分 )
+22:天然災害房屋整修及重建貸款(非屬九二一地震受災戶部分)
+23:參與度是更新計畫貸款
+31:農機貸款
+32:輔導農糧業經營貸款
+33:輔導漁業經營貸款
+34:提升處勤產業經營貸款
+35:農民經營改善貸款
+36:農業科技園區進駐業者貸款
+37:山坡地保育利用貸款
+38:農業綜合貸款
+39:改善財物貸款
+40:農會事業發展貸款
+41:農業產銷班貸款
+50:民營事業污染防治設備低利貸款
+51:行政院醫療發展基金構建醫療機構(設備)貸款
+52:經濟部中小企業發展基金支援辦理四項專案貸款
+99:其他政府專案補助貸款
+XX:非屬專案補助貸款之授信 </t>
+  </si>
+  <si>
+    <t>用途別請參照附件五
+1:購置不動產
+2:購置動產
+3:企業投資
+4:週轉金</t>
+  </si>
+  <si>
+    <t>填報該筆授信是否屬循環性質
+Y:是
+N:否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:可撤銷
+N:不可撤銷
+可撤銷之定義，依據96年金管會銀行局發佈之【銀行自有資本與風險性資產之計算方法說明及表格】第7頁所示，如該筆授信符合信用轉換係數為0者屬之，意即：
+(1)銀行無需事先通知即得隨時無條件取消之承諾【註：若銀行對客戶之零售債權承諾，符合消費者保護法及相關
+法令規定，且銀行得隨時無條件取消該承諾者，得被認為係無條件可取消之承諾。】
+(2)當借款人信用貶落時，銀行有權自動取消之承諾
+否則該授信可視為不可撤銷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期期限代號請參照附件七，其中代號"9"：未逾期或乙類逾期/應予觀察授信，屬於未逾期、乙類逾期或應予觀察授信者，其逾期期限代號請填報'9’
+如本筆屬有額度未動用授信，本欄位請填報'9’</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠右空白，
+a 如該筆授信屬甲類逾期放款，請填報其分類代號如下
+1:放款本金超過清償期三個月而未獲清償，或雖為屆滿三個月，但已向主、從債務人訴追獲處分擔保品者
+2:放款本金未超過清償期三個月，而利息未按期繳納超過六個月者
+3:分期償還放款未按期攤還超過六個月，或雖未屆滿六個月，但已向主、從債務人訴追獲處分擔保品者
+4:協議分期償還放款符合一定條件而曾經免列報逾期放款案件，於免列報期間再發生未依約清償超過三個月者
+X:非屬甲類逾期放款
+同一筆授信之分類，請於本欄位之分類代號與第40欄之分類代號中則一填報</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 如該筆授信與乙類逾期放款，請填報其分類代號如下
+1:放款本金未超過清償期三個月，惟利息未按期繳納超過清償期三個月，分期償還放款未按期攤還超過三個月至六個月者
+3:協議分期償還放款，協議條件符合規定，且借款戶依協議條件按期履約未滿六個月者
+4:已獲信用保證基金同意理賠款項或有足額存單或存款備償(需辦妥質權設定且徵得發單行拋棄抵銷權同意書)，而約定待其他債務人財產處分後再予沖償者
+5:已確定分配之債權，惟尚未接獲分配款者
+6:債務人兼擔保品提供人死亡，於辦理繼承期間，借期而為清償之放款，其繳息正常且有十足擔保者
+7:其他(如921震災展延本息之放款)
+X:非屬類逾期放款
+同一筆授信之分類，請於本欄位之分類代號與第39欄之分類代號中則一填報。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>如該筆授信債權於本月處理且結案者，請直接填報第42欄 債權結案註記 ，本欄位無須填報；本欄位僅處理當月報送處理註記代號即可，次月不需重複報送，左靠。
+P:不良債權主債務人自償
+Q:不良債權從債務人代位償還
+R:主、從債務人以外之第三人代位償還
+G:代物償還(指債權人受領其他給付，以消滅原債權之償還)
+E:債務承擔(指原有債務為第三人承擔)
+D:處分擔保品
+A:承受擔保品
+本欄位若有填報代號P、 Q、 R、G、 D及A者，亦請配合於第36、37或38欄填報收回金額；B轉銷呆帳，C 轉催收款，如無前述狀況請填空白，勿填0。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠
+3:正常債權全額清償
+T:債權轉讓
+S:債權證券化
+P:不良債權主債務人自償
+Q:不良債權從債務人代位償還
+R:主、從債務人以外之第三人代位償還
+G:代物償還(指債權人受領其他給付以消滅原債權之償還)
+E:債務承擔(指原有債務為第三人承擔)
+D:處分擔保品
+A:承受擔保品
+H:債權和解
+N:債權拋棄
+J:合併或業務移轉
+X:債權轉讓後原債權機購買回
+F:信保基金退理賠
+Z:結清銷戶
+如無結案狀況請填空白，勿填0。</t>
+  </si>
+  <si>
+    <t>0:純信用
+1:單一擔保品(或保證)
+2:多種擔保品含股票
+3:多種擔保品不含股票</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>右靠，單位：新台幣千元。如為多筆授信共用擔保品者，請將擔保品(合計)鑑估值歸入其中一筆授信之本欄位填報，其餘個筆授信此欄位則註記*，表示係與他筆授信共用擔保品</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品類別代號表請參照附件九(本修訂版將原擔保品類別:信用保證機構保證細分為5項
+05:中小企業信用保證基金保證
+06:農業信用保證基金保證
+07:華僑貸款信用保證基金保證
+08:國際合作發展基金會信用保證
+09:原住民族綜合發展基金信用保證)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:國內
+B:國際
+如非屬聯貸案填空白，勿填0。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位文數字，依永續績效連結授信契約所約定須達成之永續目標類別，分為三大類：E環境、S社會責任、G公司治理，共7種組合(代碼為1~7)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填報該授信案件屬經主管機關函釋之爭議屬性：請填報該授信案件屬經主管機關函釋之爭議屬性：
+A:遞延（預付）型消費性貸款
+B:客戶衍生性金融商品交易爭議案件
+C:協議分期償還放款依協議條件正常履約經報送為不良授信案件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填報該授信案性屬經主管機關函釋之爭議案件：
+01:學承電腦倒閉
+02:威爾斯美語倒閉；
+源自衍生性爭議案件者，請填報：
+31:協商
+32:評議/調處
+33:仲裁
+34:訴訟；若同一授信有兩種以上情事者，請銀行自行判定以最主要/具強制力者為準。
+74.8欄如填案件屬性'C'之案件，本欄請填空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>左靠，如第42欄填T或S者，本欄統一以YYYMMDDNXYYYMM共14碼表示，其資料欄位定義/結構如下：前7碼YYYMMDD：契約簽訂日期；第8碼N：當日摽售批次序號，1-第一批出售案、2-第二批出售案；第9碼X：債權類別，B：現金卡、C：授信(不含現金卡)；第10~14碼YYYMM債權處理年月(債權交割日)；本欄位如無資料請填空白，勿填0。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>本項資料本中心不予揭露，右靠左補0，單位：新台幣千元，請填本筆授信債權自撥款後之本月回收本金；若為循環信用（例如存融、現金卡放款、透支戶及理財型房貸等）授信，仍需就每月印用額度後之合計收回本金填報本欄位；若金額小於千元部分，請以小數點方式填報，例如2345元請填'0000002.345'；本月如有退回收回本金‧請於本欄位第一碼（即左靠）加註'-'（負號），例如本月退回
+12000元請填'-0000000012'；本月如無收回本金.本欄請填'0'</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3369,6 +3576,9 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3379,9 +3589,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3729,10 +3936,10 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3751,15 +3958,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="43"/>
+      <c r="A1" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="44"/>
       <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="10"/>
@@ -3770,8 +3977,8 @@
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -3787,12 +3994,12 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -3804,10 +4011,10 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -3819,10 +4026,10 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3833,10 +4040,10 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3847,10 +4054,10 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3880,17 +4087,17 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="34" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3898,10 +4105,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>28</v>
@@ -3915,7 +4122,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3946,7 +4153,7 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="40" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3954,7 +4161,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>30</v>
@@ -3977,10 +4184,10 @@
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>4</v>
       </c>
@@ -3988,7 +4195,7 @@
         <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -3998,7 +4205,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="19" t="s">
-        <v>32</v>
+        <v>764</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>36</v>
@@ -4008,7 +4215,7 @@
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="40" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4029,7 +4236,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="19" t="s">
-        <v>113</v>
+        <v>765</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>36</v>
@@ -4039,7 +4246,7 @@
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="40" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4047,10 +4254,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -4070,7 +4277,7 @@
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="40" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4078,10 +4285,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
@@ -4091,13 +4298,13 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="19" t="s">
-        <v>351</v>
+        <v>766</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="40" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4128,7 +4335,7 @@
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="40" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4159,7 +4366,7 @@
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="40" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4190,7 +4397,7 @@
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -4201,7 +4408,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -4211,7 +4418,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="19" t="s">
-        <v>322</v>
+        <v>767</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>34</v>
@@ -4221,7 +4428,7 @@
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="40" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4252,7 +4459,7 @@
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4260,7 +4467,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
@@ -4283,7 +4490,7 @@
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="40" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4314,7 +4521,7 @@
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="40" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4322,7 +4529,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>182</v>
@@ -4345,7 +4552,7 @@
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4376,7 +4583,7 @@
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="40" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4407,7 +4614,7 @@
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="40" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4428,7 +4635,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="19" t="s">
-        <v>125</v>
+        <v>768</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>36</v>
@@ -4438,7 +4645,7 @@
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="40" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4469,10 +4676,10 @@
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>20</v>
       </c>
@@ -4490,7 +4697,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="19" t="s">
-        <v>52</v>
+        <v>769</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>36</v>
@@ -4500,10 +4707,10 @@
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>21</v>
       </c>
@@ -4521,7 +4728,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="19" t="s">
-        <v>127</v>
+        <v>770</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>50</v>
@@ -4531,7 +4738,7 @@
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4562,7 +4769,7 @@
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="40" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4583,7 +4790,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="19" t="s">
-        <v>339</v>
+        <v>771</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>36</v>
@@ -4593,7 +4800,7 @@
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="40" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4626,7 +4833,7 @@
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="40" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4657,7 +4864,7 @@
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="40" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4688,7 +4895,7 @@
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="40" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4719,7 +4926,7 @@
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="40" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4750,7 +4957,7 @@
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4781,7 +4988,7 @@
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4802,7 +5009,7 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="19" t="s">
-        <v>164</v>
+        <v>772</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>98</v>
@@ -4812,10 +5019,10 @@
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="40" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>31</v>
       </c>
@@ -4833,7 +5040,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="19" t="s">
-        <v>169</v>
+        <v>773</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>98</v>
@@ -4843,7 +5050,7 @@
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="40" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4874,7 +5081,7 @@
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="40" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4885,7 +5092,7 @@
         <v>216</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
@@ -4895,7 +5102,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>93</v>
@@ -4905,7 +5112,7 @@
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="40" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -4916,7 +5123,7 @@
         <v>215</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
@@ -4926,7 +5133,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>93</v>
@@ -4936,7 +5143,7 @@
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4967,7 +5174,7 @@
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4998,7 +5205,7 @@
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="40" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5019,7 +5226,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="19" t="s">
-        <v>136</v>
+        <v>774</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>98</v>
@@ -5029,7 +5236,7 @@
       </c>
       <c r="J45" s="33"/>
       <c r="K45" s="40" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5060,7 +5267,7 @@
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="40" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5092,13 +5299,13 @@
         <v>35</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>40</v>
       </c>
@@ -5118,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>226</v>
+        <v>787</v>
       </c>
       <c r="H48" s="33" t="s">
         <v>108</v>
@@ -5127,10 +5334,10 @@
         <v>36</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5162,10 +5369,10 @@
         <v>37</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5197,13 +5404,13 @@
         <v>38</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>43</v>
       </c>
@@ -5211,7 +5418,7 @@
         <v>231</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -5221,7 +5428,7 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="19" t="s">
-        <v>331</v>
+        <v>775</v>
       </c>
       <c r="H51" s="33" t="s">
         <v>55</v>
@@ -5230,13 +5437,13 @@
         <v>39</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="15" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>44</v>
       </c>
@@ -5244,7 +5451,7 @@
         <v>232</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -5254,7 +5461,7 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="19" t="s">
-        <v>332</v>
+        <v>776</v>
       </c>
       <c r="H52" s="33" t="s">
         <v>36</v>
@@ -5266,18 +5473,18 @@
         <v>304</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="15" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -5287,7 +5494,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="19" t="s">
-        <v>141</v>
+        <v>777</v>
       </c>
       <c r="H53" s="33" t="s">
         <v>47</v>
@@ -5297,15 +5504,15 @@
       </c>
       <c r="J53" s="33"/>
       <c r="K53" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="15" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>233</v>
@@ -5318,7 +5525,7 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="19" t="s">
-        <v>234</v>
+        <v>778</v>
       </c>
       <c r="H54" s="33" t="s">
         <v>47</v>
@@ -5328,7 +5535,7 @@
       </c>
       <c r="J54" s="33"/>
       <c r="K54" s="40" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -5336,10 +5543,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -5349,7 +5556,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>59</v>
@@ -5359,7 +5566,7 @@
       </c>
       <c r="J55" s="33"/>
       <c r="K55" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5367,7 +5574,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>61</v>
@@ -5380,7 +5587,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="19" t="s">
-        <v>63</v>
+        <v>786</v>
       </c>
       <c r="H56" s="33" t="s">
         <v>62</v>
@@ -5390,7 +5597,7 @@
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5398,10 +5605,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -5411,7 +5618,7 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H57" s="33" t="s">
         <v>65</v>
@@ -5421,7 +5628,7 @@
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5429,7 +5636,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>46</v>
@@ -5452,18 +5659,18 @@
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>51</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>3</v>
@@ -5473,7 +5680,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="19" t="s">
-        <v>144</v>
+        <v>779</v>
       </c>
       <c r="H59" s="33" t="s">
         <v>36</v>
@@ -5483,7 +5690,7 @@
       </c>
       <c r="J59" s="33"/>
       <c r="K59" s="40" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5491,7 +5698,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>67</v>
@@ -5504,7 +5711,7 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="19" t="s">
-        <v>145</v>
+        <v>780</v>
       </c>
       <c r="H60" s="33" t="s">
         <v>34</v>
@@ -5514,15 +5721,15 @@
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>53</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>68</v>
@@ -5535,7 +5742,7 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="19" t="s">
-        <v>146</v>
+        <v>781</v>
       </c>
       <c r="H61" s="33" t="s">
         <v>50</v>
@@ -5545,7 +5752,7 @@
       </c>
       <c r="J61" s="33"/>
       <c r="K61" s="40" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5553,10 +5760,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
@@ -5566,7 +5773,7 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="19" t="s">
-        <v>147</v>
+        <v>782</v>
       </c>
       <c r="H62" s="33" t="s">
         <v>36</v>
@@ -5576,7 +5783,7 @@
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="40" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5584,7 +5791,7 @@
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>69</v>
@@ -5607,7 +5814,7 @@
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="40" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5615,10 +5822,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>28</v>
@@ -5640,7 +5847,7 @@
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="40" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5648,7 +5855,7 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>46</v>
@@ -5671,7 +5878,7 @@
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5679,7 +5886,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>46</v>
@@ -5702,7 +5909,7 @@
       </c>
       <c r="J66" s="33"/>
       <c r="K66" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5710,7 +5917,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>71</v>
@@ -5723,7 +5930,7 @@
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H67" s="33" t="s">
         <v>36</v>
@@ -5733,7 +5940,7 @@
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="40" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5741,7 +5948,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>72</v>
@@ -5764,7 +5971,7 @@
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="40" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5772,7 +5979,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>46</v>
@@ -5795,7 +6002,7 @@
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5803,10 +6010,10 @@
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
@@ -5826,7 +6033,7 @@
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="40" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5834,7 +6041,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>73</v>
@@ -5857,7 +6064,7 @@
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="40" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5865,7 +6072,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>35</v>
@@ -5888,7 +6095,7 @@
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="40" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5896,7 +6103,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>74</v>
@@ -5919,7 +6126,7 @@
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="40" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5927,7 +6134,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>75</v>
@@ -5950,7 +6157,7 @@
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="40" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5958,7 +6165,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>76</v>
@@ -5981,7 +6188,7 @@
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="40" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5989,7 +6196,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>35</v>
@@ -6012,7 +6219,7 @@
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="40" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6020,7 +6227,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>77</v>
@@ -6043,7 +6250,7 @@
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="40" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6051,7 +6258,7 @@
         <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>78</v>
@@ -6074,7 +6281,7 @@
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="40" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6082,7 +6289,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>79</v>
@@ -6105,7 +6312,7 @@
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="40" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6113,7 +6320,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>35</v>
@@ -6136,7 +6343,7 @@
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="40" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6144,7 +6351,7 @@
         <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>80</v>
@@ -6167,7 +6374,7 @@
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="40" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6175,10 +6382,10 @@
         <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -6198,7 +6405,7 @@
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="40" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6206,7 +6413,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>82</v>
@@ -6229,7 +6436,7 @@
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="40" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6237,7 +6444,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>35</v>
@@ -6260,7 +6467,7 @@
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="40" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6268,7 +6475,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>83</v>
@@ -6291,7 +6498,7 @@
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="40" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6299,7 +6506,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>84</v>
@@ -6322,7 +6529,7 @@
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="40" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6330,7 +6537,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>85</v>
@@ -6353,7 +6560,7 @@
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="40" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6361,7 +6568,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>35</v>
@@ -6384,7 +6591,7 @@
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="40" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6392,7 +6599,7 @@
         <v>81</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>86</v>
@@ -6415,18 +6622,18 @@
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="40" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>82</v>
       </c>
-      <c r="B90" s="46" t="s">
-        <v>303</v>
+      <c r="B90" s="42" t="s">
+        <v>302</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -6439,25 +6646,25 @@
         <v>182</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I90" s="33">
         <v>74.099999999999994</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="40" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>83</v>
       </c>
-      <c r="B91" s="46" t="s">
-        <v>765</v>
+      <c r="B91" s="42" t="s">
+        <v>758</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -6467,13 +6674,13 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="19" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="J91" s="33"/>
       <c r="K91" s="41"/>
@@ -6482,11 +6689,11 @@
       <c r="A92" s="23">
         <v>84</v>
       </c>
-      <c r="B92" s="46" t="s">
-        <v>766</v>
+      <c r="B92" s="42" t="s">
+        <v>759</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -6496,13 +6703,13 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="19" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="J92" s="33"/>
       <c r="K92" s="41"/>
@@ -6511,11 +6718,11 @@
       <c r="A93" s="23">
         <v>85</v>
       </c>
-      <c r="B93" s="46" t="s">
-        <v>763</v>
+      <c r="B93" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -6525,13 +6732,13 @@
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="19" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H93" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="J93" s="33"/>
       <c r="K93" s="41"/>
@@ -6540,11 +6747,11 @@
       <c r="A94" s="23">
         <v>86</v>
       </c>
-      <c r="B94" s="46" t="s">
-        <v>764</v>
+      <c r="B94" s="42" t="s">
+        <v>757</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -6554,13 +6761,13 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="19" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H94" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="41"/>
@@ -6569,11 +6776,11 @@
       <c r="A95" s="23">
         <v>87</v>
       </c>
-      <c r="B95" s="46" t="s">
-        <v>767</v>
+      <c r="B95" s="42" t="s">
+        <v>760</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -6583,13 +6790,13 @@
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="19" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H95" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="41"/>
@@ -6598,11 +6805,11 @@
       <c r="A96" s="23">
         <v>88</v>
       </c>
-      <c r="B96" s="46" t="s">
-        <v>768</v>
+      <c r="B96" s="42" t="s">
+        <v>761</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -6612,13 +6819,13 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="19" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="41"/>
@@ -6627,11 +6834,11 @@
       <c r="A97" s="23">
         <v>89</v>
       </c>
-      <c r="B97" s="46" t="s">
-        <v>769</v>
+      <c r="B97" s="42" t="s">
+        <v>762</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -6641,13 +6848,13 @@
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="19" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="40"/>
@@ -6657,10 +6864,10 @@
         <v>90</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>28</v>
@@ -6680,7 +6887,7 @@
       </c>
       <c r="J98" s="33"/>
       <c r="K98" s="40" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -6688,10 +6895,10 @@
         <v>91</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>3</v>
@@ -6711,7 +6918,7 @@
       </c>
       <c r="J99" s="33"/>
       <c r="K99" s="40" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6719,10 +6926,10 @@
         <v>92</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>28</v>
@@ -6742,7 +6949,7 @@
       </c>
       <c r="J100" s="33"/>
       <c r="K100" s="40" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6750,10 +6957,10 @@
         <v>93</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>3</v>
@@ -6763,7 +6970,7 @@
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H101" s="33" t="s">
         <v>36</v>
@@ -6773,7 +6980,7 @@
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="40" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6781,10 +6988,10 @@
         <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>28</v>
@@ -6794,28 +7001,28 @@
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I102" s="33">
         <v>74.7</v>
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>3</v>
@@ -6825,7 +7032,7 @@
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19" t="s">
-        <v>285</v>
+        <v>784</v>
       </c>
       <c r="H103" s="33" t="s">
         <v>36</v>
@@ -6835,18 +7042,18 @@
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="40" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -6856,17 +7063,17 @@
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19" t="s">
-        <v>284</v>
+        <v>785</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I104" s="33">
         <v>74.900000000000006</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6874,7 +7081,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>46</v>
@@ -6887,17 +7094,17 @@
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I105" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J105" s="33"/>
       <c r="K105" s="40" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -6905,7 +7112,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>88</v>
@@ -6928,7 +7135,7 @@
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="40" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -6949,7 +7156,7 @@
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H107" s="33" t="s">
         <v>36</v>
@@ -6959,7 +7166,7 @@
       </c>
       <c r="J107" s="33"/>
       <c r="K107" s="40" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -7137,7 +7344,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:J24 B54:J54 B51:D51 F51:I51 A112:XFD1048576 B107:F107 H107:J107 A2:XFD2 A14:B14 D14:J14 B106:J106 B82 D82:J82 B108:XFD111 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:I48 L48:XFD48 B47:I47 L47:XFD47 L50:XFD50 L51:XFD51 B52:I52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:J26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:J46 B38:F38 H38:J38 B39:F39 H39:J39 B61:J61 B59:F59 H59:J59 B70:J81 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J23 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:J28 L28:XFD28 B29:J29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:J45 L45:XFD45 L46:XFD46 B53:J53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:J56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:J60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 B66:J66 L66:XFD66 B67:J67 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B83:J89 L83:XFD89 L82:XFD82 L70:XFD81 B90 L90:XFD90 L97:XFD97 B98:J98 L98:XFD98 B99:J105 L99:XFD105 L106:XFD106 L107:XFD107 F90 I90:J90 J97 D97 F97 D90" numberStoredAsText="1"/>
+    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A112:XFD1048576 B107:F107 H107:J107 A2:XFD2 A14:B14 D14:J14 B106:J106 B82 D82:J82 B108:XFD111 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B70:J81 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 B53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 B66:J66 L66:XFD66 B67:J67 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B83:J89 L83:XFD89 L82:XFD82 L70:XFD81 B90 L90:XFD90 L97:XFD97 B98:J98 L98:XFD98 B99:J102 L99:XFD105 L106:XFD106 L107:XFD107 F90 I90:J90 J97 D97 F97 D90 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B105:J105 B103:F103 H103:J103 B104:F104 H104:J104 H56:J56 H47:I47 H48:I48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7195,24 +7402,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -7237,407 +7444,407 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -7662,362 +7869,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -8042,12 +8249,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -8055,1107 +8262,1107 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="35" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="35" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="35" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="35" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="35" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="35" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="35" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="35" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="35" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="35" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="35" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="35" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="35" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="35" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="35" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="35" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="35" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="35" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="35" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="35" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="35" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="35" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="35" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="35" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="35" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="35" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="35" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="35" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="35" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="35" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="35" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="35" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="35" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="35" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="35" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="35" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="35" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="35" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="35" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="35" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="35" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="35" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="35" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="35" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="35" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="35" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="35" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="35" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="35" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="35" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="35" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="35" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="35" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="35" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="35" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="35" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="35" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="35" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="35" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="35" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="35" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="35" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="35" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="35" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="35" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="35" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="35" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="35" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="35" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="35" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="35" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="35" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="35" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="35" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="35" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="35" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="35" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="35" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9186,10 +9393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9201,8 +9408,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -9214,12 +9421,12 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -9227,10 +9434,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -9238,37 +9445,37 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
       <c r="G6" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
       <c r="G7" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9291,7 +9498,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>170</v>
@@ -9545,7 +9752,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -9590,7 +9797,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>182</v>
@@ -10311,7 +10518,7 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -10332,7 +10539,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>233</v>
@@ -10356,7 +10563,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>58</v>
@@ -10380,7 +10587,7 @@
         <v>44.1</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>61</v>
@@ -10404,7 +10611,7 @@
         <v>44.2</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>64</v>
@@ -10428,7 +10635,7 @@
         <v>44.3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>46</v>
@@ -10452,10 +10659,10 @@
         <v>45</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -10476,10 +10683,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
@@ -10500,7 +10707,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>68</v>
@@ -10524,10 +10731,10 @@
         <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -10548,7 +10755,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>69</v>
@@ -10572,10 +10779,10 @@
         <v>50</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>28</v>
@@ -10598,7 +10805,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>46</v>
@@ -10622,7 +10829,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -10646,7 +10853,7 @@
         <v>53.1</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>71</v>
@@ -10670,7 +10877,7 @@
         <v>53.2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>72</v>
@@ -10694,7 +10901,7 @@
         <v>53.3</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>46</v>
@@ -10718,10 +10925,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -10742,7 +10949,7 @@
         <v>55</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>73</v>
@@ -10766,7 +10973,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>35</v>
@@ -10790,7 +10997,7 @@
         <v>57</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>74</v>
@@ -10814,7 +11021,7 @@
         <v>58</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>75</v>
@@ -10838,7 +11045,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>76</v>
@@ -10862,7 +11069,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>35</v>
@@ -10886,7 +11093,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>77</v>
@@ -10910,7 +11117,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>78</v>
@@ -10934,7 +11141,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>79</v>
@@ -10958,7 +11165,7 @@
         <v>64</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>35</v>
@@ -10982,7 +11189,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>80</v>
@@ -11006,7 +11213,7 @@
         <v>66</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>81</v>
@@ -11030,7 +11237,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>82</v>
@@ -11054,7 +11261,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>35</v>
@@ -11078,7 +11285,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>83</v>
@@ -11102,7 +11309,7 @@
         <v>70</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>84</v>
@@ -11126,7 +11333,7 @@
         <v>71</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>85</v>
@@ -11150,7 +11357,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>35</v>
@@ -11174,7 +11381,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>86</v>
@@ -11198,7 +11405,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>46</v>
@@ -11222,7 +11429,7 @@
         <v>74.2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>46</v>
@@ -11246,10 +11453,10 @@
         <v>74.3</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -11270,10 +11477,10 @@
         <v>74.400000000000006</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -11294,10 +11501,10 @@
         <v>74.5</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -11318,10 +11525,10 @@
         <v>74.599999999999994</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -11331,7 +11538,7 @@
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>36</v>
@@ -11342,10 +11549,10 @@
         <v>74.7</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>28</v>
@@ -11355,10 +11562,10 @@
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -11366,10 +11573,10 @@
         <v>74.8</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -11379,7 +11586,7 @@
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>36</v>
@@ -11390,10 +11597,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -11403,18 +11610,18 @@
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>46</v>
@@ -11427,10 +11634,10 @@
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -11438,7 +11645,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>88</v>
@@ -11483,7 +11690,7 @@
     </row>
     <row r="100" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>20</v>
@@ -11503,7 +11710,7 @@
     </row>
     <row r="101" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>22</v>
@@ -11523,7 +11730,7 @@
     </row>
     <row r="102" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>24</v>
@@ -11543,7 +11750,7 @@
     </row>
     <row r="103" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>10</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790937C-CF09-4195-AC64-B4B3DB3FA9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16CDD2-A61E-4E96-AD3E-08203F4D7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="788">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1347,11 +1347,6 @@
   </si>
   <si>
     <t>不良債權處理註記</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BadDebtCode</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -3192,6 +3187,10 @@
   <si>
     <t>本項資料本中心不予揭露，右靠左補0，單位：新台幣千元，請填本筆授信債權自撥款後之本月回收本金；若為循環信用（例如存融、現金卡放款、透支戶及理財型房貸等）授信，仍需就每月印用額度後之合計收回本金填報本欄位；若金額小於千元部分，請以小數點方式填報，例如2345元請填'0000002.345'；本月如有退回收回本金‧請於本欄位第一碼（即左靠）加註'-'（負號），例如本月退回
 12000元請填'-0000000012'；本月如無收回本金.本欄請填'0'</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BadDebtCode</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3936,10 +3935,10 @@
   <dimension ref="A1:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -4093,11 +4092,11 @@
         <v>170</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4108,7 +4107,7 @@
         <v>306</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>28</v>
@@ -4122,7 +4121,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4153,7 +4152,7 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4184,7 +4183,7 @@
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4195,7 +4194,7 @@
         <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -4205,7 +4204,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>36</v>
@@ -4215,7 +4214,7 @@
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4236,7 +4235,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>36</v>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4257,7 +4256,7 @@
         <v>310</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -4277,7 +4276,7 @@
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4285,10 +4284,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
@@ -4298,13 +4297,13 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4335,7 +4334,7 @@
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4366,7 +4365,7 @@
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4397,7 +4396,7 @@
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -4408,7 +4407,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -4418,7 +4417,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>34</v>
@@ -4428,7 +4427,7 @@
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4459,7 +4458,7 @@
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4467,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
@@ -4490,7 +4489,7 @@
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4521,7 +4520,7 @@
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4552,7 +4551,7 @@
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4583,7 +4582,7 @@
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4614,7 +4613,7 @@
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4635,7 +4634,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>36</v>
@@ -4645,7 +4644,7 @@
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4676,7 +4675,7 @@
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
@@ -4697,7 +4696,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>36</v>
@@ -4707,7 +4706,7 @@
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
@@ -4728,7 +4727,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>50</v>
@@ -4738,7 +4737,7 @@
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4769,7 +4768,7 @@
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4790,7 +4789,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>36</v>
@@ -4800,7 +4799,7 @@
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4833,7 +4832,7 @@
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4864,7 +4863,7 @@
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4895,7 +4894,7 @@
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4926,7 +4925,7 @@
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4957,7 +4956,7 @@
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4988,7 +4987,7 @@
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5009,7 +5008,7 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>98</v>
@@ -5019,7 +5018,7 @@
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5040,7 +5039,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>98</v>
@@ -5050,7 +5049,7 @@
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5081,7 +5080,7 @@
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -5092,7 +5091,7 @@
         <v>216</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
@@ -5102,7 +5101,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>93</v>
@@ -5112,7 +5111,7 @@
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -5123,7 +5122,7 @@
         <v>215</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
@@ -5133,7 +5132,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>93</v>
@@ -5143,7 +5142,7 @@
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -5174,7 +5173,7 @@
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5205,7 +5204,7 @@
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5226,7 +5225,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>98</v>
@@ -5236,7 +5235,7 @@
       </c>
       <c r="J45" s="33"/>
       <c r="K45" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5267,7 +5266,7 @@
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5299,10 +5298,10 @@
         <v>35</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -5325,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H48" s="33" t="s">
         <v>108</v>
@@ -5334,10 +5333,10 @@
         <v>36</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5369,10 +5368,10 @@
         <v>37</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5404,10 +5403,10 @@
         <v>38</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5418,7 +5417,7 @@
         <v>231</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -5428,7 +5427,7 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H51" s="33" t="s">
         <v>55</v>
@@ -5437,10 +5436,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
@@ -5451,7 +5450,7 @@
         <v>232</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -5461,7 +5460,7 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H52" s="33" t="s">
         <v>36</v>
@@ -5473,7 +5472,7 @@
         <v>304</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
@@ -5481,7 +5480,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>312</v>
+        <v>787</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>311</v>
@@ -5494,7 +5493,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H53" s="33" t="s">
         <v>47</v>
@@ -5504,7 +5503,7 @@
       </c>
       <c r="J53" s="33"/>
       <c r="K53" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
@@ -5525,7 +5524,7 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H54" s="33" t="s">
         <v>47</v>
@@ -5535,7 +5534,7 @@
       </c>
       <c r="J54" s="33"/>
       <c r="K54" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -5546,7 +5545,7 @@
         <v>246</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -5556,7 +5555,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>59</v>
@@ -5566,7 +5565,7 @@
       </c>
       <c r="J55" s="33"/>
       <c r="K55" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5587,7 +5586,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H56" s="33" t="s">
         <v>62</v>
@@ -5597,7 +5596,7 @@
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5608,7 +5607,7 @@
         <v>236</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -5618,7 +5617,7 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H57" s="33" t="s">
         <v>65</v>
@@ -5628,7 +5627,7 @@
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5659,7 +5658,7 @@
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5680,7 +5679,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="19" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H59" s="33" t="s">
         <v>36</v>
@@ -5690,7 +5689,7 @@
       </c>
       <c r="J59" s="33"/>
       <c r="K59" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5711,7 +5710,7 @@
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H60" s="33" t="s">
         <v>34</v>
@@ -5721,7 +5720,7 @@
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -5742,7 +5741,7 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H61" s="33" t="s">
         <v>50</v>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="J61" s="33"/>
       <c r="K61" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5773,7 +5772,7 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H62" s="33" t="s">
         <v>36</v>
@@ -5783,7 +5782,7 @@
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5814,7 +5813,7 @@
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5847,7 +5846,7 @@
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5878,7 +5877,7 @@
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5909,7 +5908,7 @@
       </c>
       <c r="J66" s="33"/>
       <c r="K66" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5940,7 +5939,7 @@
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5971,7 +5970,7 @@
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6002,7 +6001,7 @@
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6033,7 +6032,7 @@
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6064,7 +6063,7 @@
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6095,7 +6094,7 @@
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6126,7 +6125,7 @@
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6157,7 +6156,7 @@
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6188,7 +6187,7 @@
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6219,7 +6218,7 @@
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6250,7 +6249,7 @@
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6281,7 +6280,7 @@
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="40" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6312,7 +6311,7 @@
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="40" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6343,7 +6342,7 @@
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6374,7 +6373,7 @@
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6385,7 +6384,7 @@
         <v>269</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
@@ -6405,7 +6404,7 @@
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6436,7 +6435,7 @@
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6467,7 +6466,7 @@
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6498,7 +6497,7 @@
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6529,7 +6528,7 @@
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="40" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6560,7 +6559,7 @@
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6591,7 +6590,7 @@
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="40" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6622,7 +6621,7 @@
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6633,7 +6632,7 @@
         <v>302</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -6646,14 +6645,14 @@
         <v>182</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I90" s="33">
         <v>74.099999999999994</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -6661,10 +6660,10 @@
         <v>83</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -6674,13 +6673,13 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J91" s="33"/>
       <c r="K91" s="41"/>
@@ -6690,10 +6689,10 @@
         <v>84</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -6703,13 +6702,13 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J92" s="33"/>
       <c r="K92" s="41"/>
@@ -6719,10 +6718,10 @@
         <v>85</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -6732,13 +6731,13 @@
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H93" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J93" s="33"/>
       <c r="K93" s="41"/>
@@ -6748,10 +6747,10 @@
         <v>86</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -6761,13 +6760,13 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H94" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="41"/>
@@ -6777,10 +6776,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -6790,13 +6789,13 @@
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H95" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="41"/>
@@ -6806,10 +6805,10 @@
         <v>88</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -6819,13 +6818,13 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="41"/>
@@ -6835,10 +6834,10 @@
         <v>89</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -6848,13 +6847,13 @@
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="40"/>
@@ -6887,7 +6886,7 @@
       </c>
       <c r="J98" s="33"/>
       <c r="K98" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -6918,7 +6917,7 @@
       </c>
       <c r="J99" s="33"/>
       <c r="K99" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6949,7 +6948,7 @@
       </c>
       <c r="J100" s="33"/>
       <c r="K100" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6980,7 +6979,7 @@
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -7011,7 +7010,7 @@
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -7032,7 +7031,7 @@
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H103" s="33" t="s">
         <v>36</v>
@@ -7042,7 +7041,7 @@
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -7063,7 +7062,7 @@
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H104" s="33" t="s">
         <v>279</v>
@@ -7073,7 +7072,7 @@
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -7104,7 +7103,7 @@
       </c>
       <c r="J105" s="33"/>
       <c r="K105" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7112,7 +7111,7 @@
         <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>88</v>
@@ -7135,7 +7134,7 @@
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -7156,7 +7155,7 @@
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H107" s="33" t="s">
         <v>36</v>
@@ -7166,7 +7165,7 @@
       </c>
       <c r="J107" s="33"/>
       <c r="K107" s="40" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -7344,7 +7343,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A112:XFD1048576 B107:F107 H107:J107 A2:XFD2 A14:B14 D14:J14 B106:J106 B82 D82:J82 B108:XFD111 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B70:J81 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 B53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 B66:J66 L66:XFD66 B67:J67 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B83:J89 L83:XFD89 L82:XFD82 L70:XFD81 B90 L90:XFD90 L97:XFD97 B98:J98 L98:XFD98 B99:J102 L99:XFD105 L106:XFD106 L107:XFD107 F90 I90:J90 J97 D97 F97 D90 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B105:J105 B103:F103 H103:J103 B104:F104 H104:J104 H56:J56 H47:I47 H48:I48" numberStoredAsText="1"/>
+    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A112:XFD1048576 B107:F107 H107:J107 A2:XFD2 A14:B14 D14:J14 B106:J106 B82 D82:J82 B108:XFD111 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B70:J81 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 B66:J66 L66:XFD66 B67:J67 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B83:J89 L83:XFD89 L82:XFD82 L70:XFD81 B90 L90:XFD90 L97:XFD97 B98:J98 L98:XFD98 B99:J102 L99:XFD105 L106:XFD106 L107:XFD107 F90 I90:J90 J97 D97 F97 D90 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B105:J105 B103:F103 H103:J103 B104:F104 H104:J104 H56:J56 H47:I47 H48:I48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7402,24 +7401,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>338</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7444,407 +7443,407 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -7869,362 +7868,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -8249,12 +8248,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -8262,1107 +8261,1107 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -9752,7 +9751,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -10686,7 +10685,7 @@
         <v>239</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
@@ -10734,7 +10733,7 @@
         <v>242</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -11690,7 +11689,7 @@
     </row>
     <row r="100" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>20</v>
@@ -11710,7 +11709,7 @@
     </row>
     <row r="101" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>22</v>
@@ -11730,7 +11729,7 @@
     </row>
     <row r="102" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>24</v>
@@ -11750,7 +11749,7 @@
     </row>
     <row r="103" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>10</v>
